--- a/LIQ_20197_1_9.xlsx
+++ b/LIQ_20197_1_9.xlsx
@@ -169,7 +169,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -177,7 +177,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -265,7 +265,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1797128</v>
+        <v>1728378</v>
       </c>
     </row>
     <row r="24" spans="3:4">

--- a/LIQ_20197_1_9.xlsx
+++ b/LIQ_20197_1_9.xlsx
@@ -177,7 +177,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -201,7 +201,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -273,7 +273,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>18564</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -289,7 +289,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>1666942</v>
       </c>
     </row>
     <row r="32" spans="4:4">

--- a/LIQ_20197_1_9.xlsx
+++ b/LIQ_20197_1_9.xlsx
@@ -169,7 +169,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -265,7 +265,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1728378</v>
+        <v>1848691</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -289,7 +289,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>1666942</v>
+        <v>1787255</v>
       </c>
     </row>
     <row r="32" spans="4:4">
